--- a/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlesfeng\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23460" windowHeight="5205"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>级别</t>
   </si>
@@ -53,86 +48,101 @@
     <t>备注</t>
   </si>
   <si>
+    <t>职业房东--职业房东管理-职业房东列表--账户限制管理</t>
+  </si>
+  <si>
+    <t>acct/accountManager</t>
+  </si>
+  <si>
+    <t>账户限制管理</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>架构组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct/accountManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct/accountManager</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户限制管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户限制管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东--租客管理--租客列表--账户限制管理</t>
+  </si>
+  <si>
+    <t>职业房东--职业房东管理-职业房东列表--账户限制管理--新增账户限制</t>
+  </si>
+  <si>
+    <t>acct/addSpcList</t>
+  </si>
+  <si>
+    <t>新增账户限制</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>职业房东--租客管理--租客列表--账户限制管理--取消账户限制</t>
   </si>
   <si>
     <t>acct/cancelSpcList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acct/addSpcList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增账户限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>取消账户限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业房东--职业房东管理-职业房东列表--账户限制管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业房东--职业房东管理-职业房东列表--账户限制管理--新增账户限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业房东--租客管理--租客列表--账户限制管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业房东--租客管理--租客列表--账户限制管理--取消账户限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理--员工管理</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>系统管理--员工管理--员工列表</t>
+  </si>
+  <si>
+    <t>employee/findEmployeeList</t>
+  </si>
+  <si>
+    <t>员工列表</t>
+  </si>
+  <si>
+    <t>系统管理--员工管理--员工列表--修改密码跳转</t>
+  </si>
+  <si>
+    <t>employee/gotoEmployeeSetPwd</t>
+  </si>
+  <si>
+    <t>修改密码跳转</t>
+  </si>
+  <si>
+    <t>系统管理--员工管理--员工列表--修改登陆密码</t>
+  </si>
+  <si>
+    <t>employee/setEmployeePwd</t>
+  </si>
+  <si>
+    <t>修改登陆密码</t>
+  </si>
+  <si>
+    <t>系统管理--员工管理--员工列表--修改员工状态</t>
+  </si>
+  <si>
+    <t>employee/editEmployeeStatus</t>
+  </si>
+  <si>
+    <t>修改员工状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,29 +166,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -223,12 +556,8 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -238,8 +567,12 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -251,9 +584,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -276,56 +851,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -372,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +1021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,14 +1229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="64.625" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -630,7 +1245,7 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,170 +1274,208 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -833,7 +1486,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -844,7 +1497,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -855,7 +1508,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -866,7 +1519,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -877,7 +1530,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -888,7 +1541,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -899,7 +1552,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -910,7 +1563,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -921,50 +1574,50 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H23" s="10"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -975,7 +1628,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -984,9 +1637,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -995,259 +1648,265 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" spans="1:9">
       <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+    <row r="33" spans="1:9">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+    <row r="34" spans="1:9">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+    <row r="35" spans="1:9">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+    <row r="37" spans="1:9">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+    <row r="38" spans="1:9">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="4"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="4"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="A45" s="4"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="9"/>
+    <row r="46" ht="14.25" spans="1:9">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>级别</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>修改员工状态</t>
+  </si>
+  <si>
+    <t>报表管理--消息管理</t>
+  </si>
+  <si>
+    <t>消息管理</t>
+  </si>
+  <si>
+    <t>报表管理--消息管理--短信列表</t>
+  </si>
+  <si>
+    <t>msg/findMessageList</t>
+  </si>
+  <si>
+    <t>短信列表</t>
   </si>
 </sst>
 </file>
@@ -137,12 +152,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +184,68 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,69 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,24 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +312,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +334,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,175 +394,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +593,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,15 +628,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +647,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -639,21 +682,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -662,177 +690,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,13 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1234,7 +1239,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1393,17 +1398,25 @@
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1412,10 +1425,18 @@
       <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
@@ -1431,10 +1452,18 @@
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
@@ -1450,10 +1479,18 @@
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
@@ -1469,32 +1506,70 @@
       <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
@@ -1576,46 +1651,46 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4"/>
@@ -1637,7 +1712,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4"/>
@@ -1648,227 +1723,227 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
       <c r="A31" s="4"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4"/>
-      <c r="B41" s="11"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="11"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" ht="14.25" spans="1:9">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="13"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>级别</t>
   </si>
@@ -145,19 +145,41 @@
   </si>
   <si>
     <t>短信列表</t>
+  </si>
+  <si>
+    <t>特殊权限菜单--公共权限--智能插件填充</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>landlord/findBankPluginList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡智能插件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,345 +203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -592,251 +290,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -893,58 +349,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1234,15 +648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="64.625" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
@@ -1250,7 +663,7 @@
     <col min="9" max="9" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>4</v>
       </c>
@@ -1306,7 +719,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -1333,7 +746,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1360,7 +773,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1387,7 +800,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1412,7 +825,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1439,7 +852,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1466,7 +879,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1493,7 +906,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1520,7 +933,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1545,7 +958,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -1572,18 +985,34 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1594,7 +1023,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1605,7 +1034,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1616,7 +1045,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1627,7 +1056,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1638,7 +1067,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1649,7 +1078,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1660,7 +1089,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1671,7 +1100,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1682,7 +1111,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1692,7 +1121,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1703,7 +1132,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1714,7 +1143,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1725,7 +1154,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -1736,7 +1165,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -1747,7 +1176,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1758,7 +1187,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1769,7 +1198,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:9">
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1780,7 +1209,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4"/>
@@ -1791,7 +1220,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4"/>
@@ -1802,7 +1231,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="4"/>
@@ -1813,7 +1242,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -1824,7 +1253,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -1835,7 +1264,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="10"/>
       <c r="B37" s="5"/>
       <c r="C37" s="11"/>
@@ -1846,7 +1275,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
       <c r="B38" s="5"/>
       <c r="C38" s="10"/>
@@ -1857,7 +1286,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1868,7 +1297,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -1879,7 +1308,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
@@ -1890,7 +1319,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1901,7 +1330,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -1912,7 +1341,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="4"/>
@@ -1923,7 +1352,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -1934,7 +1363,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" ht="14.25" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
@@ -1946,42 +1375,36 @@
       <c r="I46" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
+++ b/VersionRecords/Version3.1.1/BS权限配置/新增权限配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,13 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>级别</t>
   </si>
@@ -48,9 +49,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>职业房东--职业房东管理-职业房东列表--账户限制管理</t>
-  </si>
-  <si>
     <t>acct/accountManager</t>
   </si>
   <si>
@@ -66,12 +64,6 @@
     <t>架构组</t>
   </si>
   <si>
-    <t>职业房东--租客管理--租客列表--账户限制管理</t>
-  </si>
-  <si>
-    <t>职业房东--职业房东管理-职业房东列表--账户限制管理--新增账户限制</t>
-  </si>
-  <si>
     <t>acct/addSpcList</t>
   </si>
   <si>
@@ -79,9 +71,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>职业房东--租客管理--租客列表--账户限制管理--取消账户限制</t>
   </si>
   <si>
     <t>acct/cancelSpcList</t>
@@ -172,6 +161,18 @@
   </si>
   <si>
     <t>发现组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东--职业房东管理-职业房东列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东--租客管理--租客列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东--职业房东管理-职业房东列表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +206,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +355,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,6 +369,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,7 +667,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,25 +712,25 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -723,26 +738,26 @@
       <c r="A3" s="4">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -750,26 +765,26 @@
       <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -777,26 +792,26 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
+      <c r="B5" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -805,23 +820,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -830,25 +845,25 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -857,25 +872,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -884,25 +899,25 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -911,25 +926,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I10" s="4"/>
     </row>
@@ -938,23 +953,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I11" s="4"/>
     </row>
@@ -963,25 +978,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I12" s="4"/>
     </row>
@@ -990,25 +1005,25 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1377,7 +1392,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
